--- a/gantogram.xlsx
+++ b/gantogram.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlo\OneDrive\Desktop\projekt\OCPP.Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AAADE3A-258C-4C06-B401-61F0E75640D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F21999F-A3A5-4147-AC62-2630DA1995F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="960" windowWidth="21600" windowHeight="11295" xr2:uid="{798ED568-900D-4D2C-84CF-2F4A6C2BC8D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{798ED568-900D-4D2C-84CF-2F4A6C2BC8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -63,6 +64,30 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Duration (days)</t>
+  </si>
+  <si>
+    <t>Definiranje zahtjeva projekta</t>
+  </si>
+  <si>
+    <t>Objava koda na GitHubu</t>
+  </si>
+  <si>
+    <t>Istraživanje open-source rješenja</t>
+  </si>
+  <si>
+    <t>Istraživanje EV protokola</t>
+  </si>
+  <si>
+    <t>Implementacija rješenja</t>
+  </si>
+  <si>
+    <t>Testiranje rješenja</t>
+  </si>
+  <si>
+    <t>Dovršetak tehničke dokumentacije</t>
   </si>
 </sst>
 </file>
@@ -561,7 +586,428 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2381332329484076"/>
+          <c:y val="0.15795494313210848"/>
+          <c:w val="0.69588779320705307"/>
+          <c:h val="0.84204505686789155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$9:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Istraživanje open-source rješenja</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Istraživanje EV protokola</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Definiranje zahtjeva projekta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementacija rješenja</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Testiranje rješenja</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dovršetak tehničke dokumentacije</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Objava koda na GitHubu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$9:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AB3-4F11-A659-F00E37A9F91E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration (days)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$9:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Istraživanje open-source rješenja</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Istraživanje EV protokola</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Definiranje zahtjeva projekta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementacija rješenja</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Testiranje rješenja</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dovršetak tehničke dokumentacije</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Objava koda na GitHubu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$9:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AB3-4F11-A659-F00E37A9F91E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1654183488"/>
+        <c:axId val="1654182528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1654183488"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654182528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1654182528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45688"/>
+          <c:min val="45565"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654183488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1106,6 +1552,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1139,6 +2090,108 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485986</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Output image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54691A1-B4DA-12BA-C34A-78C36A8A21F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17249986" y="881062"/>
+          <a:ext cx="8415126" cy="4929188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10084</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71EDB55F-A30A-86D8-A532-30F498E2D743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1466,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0421E6-2D6C-419C-AF01-3FCCC9F70AB4}">
   <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,4 +2629,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20CBC66-D1C0-4F2A-AAB7-1A4FEAF4D871}">
+  <dimension ref="C2:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45579</v>
+      </c>
+      <c r="F9">
+        <f>E9-D9</f>
+        <v>14</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45579</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F15" si="0">E10-D10</f>
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45580</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45606</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45666</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45636</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45676</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45677</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45688</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45677</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45688</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>